--- a/Time Table.xlsx
+++ b/Time Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spectral/Git-repos/GroepsWerk_SQL/GroepsWerk_Nature_SQL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RubenClaes/Documents/Ucll/1_S2/Databanken &amp; Dataquerying/GroepsWerkGit/GroepsWerk_Nature_SQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649DC44B-5DED-A042-8804-AB777BA2FEA9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C2F3A8-4465-114C-98F5-122E2DD3475E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{0111D7EB-AF11-5B43-947A-691B85D3BAD9}"/>
+    <workbookView xWindow="1160" yWindow="440" windowWidth="27640" windowHeight="16140" xr2:uid="{0111D7EB-AF11-5B43-947A-691B85D3BAD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="34">
   <si>
     <t>Week2</t>
   </si>
@@ -112,6 +112,21 @@
   </si>
   <si>
     <t>Grant aanpassen &amp; Problem Solving</t>
+  </si>
+  <si>
+    <t>Overlopen vereisten</t>
+  </si>
+  <si>
+    <t>EERD, Insert toegevoegd aan Git</t>
+  </si>
+  <si>
+    <t>Insert gemaakt</t>
+  </si>
+  <si>
+    <t>Insert final touches, querrys maken</t>
+  </si>
+  <si>
+    <t>Querrys maken &amp; testen</t>
   </si>
 </sst>
 </file>
@@ -305,7 +320,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -321,9 +336,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -361,7 +376,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -467,7 +482,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -619,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBAAB67-AB22-2743-9694-6543EECBEB62}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,7 +712,9 @@
       <c r="D2" s="7">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="F2" s="7">
         <v>0</v>
       </c>
@@ -712,7 +729,9 @@
         <v>0</v>
       </c>
       <c r="O2" s="8"/>
-      <c r="P2" s="10"/>
+      <c r="P2" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -916,22 +935,28 @@
       <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="F10" s="7">
         <v>0</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
+      <c r="H10" s="7"/>
       <c r="I10" s="8"/>
       <c r="J10" s="7"/>
       <c r="K10" s="9"/>
       <c r="L10" s="7"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="10"/>
+      <c r="N10" s="9">
+        <v>4</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -953,9 +978,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="8"/>
       <c r="J11" s="7"/>
       <c r="K11" s="9"/>
@@ -985,9 +1008,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="8"/>
       <c r="J12" s="7"/>
       <c r="K12" s="9"/>
@@ -1132,22 +1153,30 @@
       <c r="D18" s="7">
         <v>2</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="H18" s="7">
         <v>2</v>
       </c>
-      <c r="I18" s="8"/>
+      <c r="I18" s="8">
+        <v>4</v>
+      </c>
       <c r="J18" s="7"/>
       <c r="K18" s="9"/>
       <c r="L18" s="7"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="10"/>
+      <c r="P18" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
@@ -1169,9 +1198,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
+      <c r="H19" s="7"/>
       <c r="I19" s="8"/>
       <c r="J19" s="7"/>
       <c r="K19" s="9"/>
@@ -1201,9 +1228,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
+      <c r="H20" s="7"/>
       <c r="I20" s="8"/>
       <c r="J20" s="7"/>
       <c r="K20" s="9"/>

--- a/Time Table.xlsx
+++ b/Time Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RubenClaes/Documents/Ucll/1_S2/Databanken &amp; Dataquerying/GroepsWerkGit/GroepsWerk_Nature_SQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C2F3A8-4465-114C-98F5-122E2DD3475E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC95D4E-69F1-A243-BBBD-BB83EE6DD088}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="440" windowWidth="27640" windowHeight="16140" xr2:uid="{0111D7EB-AF11-5B43-947A-691B85D3BAD9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
   <si>
     <t>Week2</t>
   </si>
@@ -320,7 +320,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -338,7 +338,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -376,7 +376,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -482,7 +482,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBAAB67-AB22-2743-9694-6543EECBEB62}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1163,10 +1163,10 @@
         <v>33</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
-      </c>
-      <c r="I18" s="8">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="9"/>
@@ -1175,7 +1175,7 @@
       <c r="N18" s="9"/>
       <c r="O18" s="8"/>
       <c r="P18" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
